--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.1102844782619</v>
+        <v>421.5626070691574</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.59143808817635</v>
+        <v>51.56260706915739</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.72978832722616</v>
+        <v>3.132299474826761</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.6086347173128</v>
+        <v>3.132299474826761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>522.1199999999989</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.52</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.95858503259002</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.29375422704624</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.99312545677591</v>
+        <v>41.72550364349533</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>38.65369863122122</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.0235425542724</v>
+        <v>44.77302048907443</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.12542493160267</v>
+        <v>44.85780311832209</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,85 +1057,15 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>201.5399999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>194.1249999999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>195.9049999999999</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>196.0399999999998</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>203.55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>157.885</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>157.09</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>154.61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>156.53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.995</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.17</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.675</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.475</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.925</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.655</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>201.5399999999998</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>194.1249999999999</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>195.9049999999999</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>196.0399999999998</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>203.55</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>147.34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>159.205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>140.4299999999997</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>157.7</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.995</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>51.53999999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>44.12499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>45.90499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>46.03999999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>53.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9.205</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.995000000000005</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2025,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2040,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2051,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2062,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,100 +2084,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
